--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>lstPassengers</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>lstPassengers</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>September</t>
-  </si>
-  <si>
-    <t>Click</t>
   </si>
   <si>
     <t>15</t>
@@ -420,7 +417,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,15 +462,15 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -542,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -71,7 +71,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>December</t>
+    <t>January</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -71,7 +71,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>January</t>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
